--- a/data.xlsx
+++ b/data.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="237">
   <si>
     <t>контраст</t>
   </si>
   <si>
-    <t>сpeak1</t>
-  </si>
-  <si>
     <t>vd</t>
   </si>
   <si>
@@ -727,6 +724,12 @@
   </si>
   <si>
     <t>CC2_group</t>
+  </si>
+  <si>
+    <t>cpeak1</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1080,314 +1083,314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CT22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
-      <selection activeCell="CM5" sqref="CM5"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BF9" sqref="BF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
         <v>147</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>149</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>151</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>152</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>153</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>154</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>155</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>156</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>157</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>158</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>159</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>160</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>162</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>163</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>164</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>165</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>166</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>167</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>168</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>169</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>170</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>171</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>172</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>173</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>174</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>176</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>177</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>178</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>179</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>180</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>181</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>182</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>183</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>184</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>185</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>186</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>187</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>188</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>189</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>190</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>191</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>192</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>193</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>194</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>195</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>196</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>197</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>198</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BD1" t="s">
         <v>199</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>1</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG1" t="s">
         <v>200</v>
       </c>
-      <c r="BE1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>3</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>201</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BK1" t="s">
         <v>4</v>
       </c>
-      <c r="BI1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>203</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP1" t="s">
         <v>5</v>
       </c>
-      <c r="BL1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>207</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>217</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>218</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>219</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>220</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>221</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CM1" t="s">
         <v>6</v>
       </c>
-      <c r="BQ1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>210</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>217</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>218</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>219</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>221</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>222</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>223</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>224</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>225</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>227</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>228</v>
-      </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CT1" t="s">
         <v>229</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>233</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>234</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>232</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>231</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>5678</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>55</v>
@@ -1402,25 +1405,25 @@
         <v>23.545705999999999</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2">
         <v>33</v>
@@ -1435,10 +1438,10 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U2">
         <v>14400</v>
@@ -1447,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z2">
         <v>490</v>
@@ -1464,35 +1467,35 @@
       <c r="AB2">
         <v>0.8</v>
       </c>
-      <c r="AC2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE2" t="e">
-        <v>#N/A</v>
+      <c r="AC2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>236</v>
       </c>
       <c r="AF2">
         <v>100.4</v>
       </c>
-      <c r="AG2" t="e">
-        <v>#N/A</v>
+      <c r="AG2" t="s">
+        <v>236</v>
       </c>
       <c r="AH2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM2">
         <v>4</v>
@@ -1500,8 +1503,8 @@
       <c r="AN2">
         <v>1.2</v>
       </c>
-      <c r="AO2" t="e">
-        <v>#N/A</v>
+      <c r="AO2" t="s">
+        <v>236</v>
       </c>
       <c r="AP2">
         <v>83.6</v>
@@ -1510,19 +1513,19 @@
         <v>62.9</v>
       </c>
       <c r="AR2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU2" t="s">
         <v>79</v>
       </c>
-      <c r="AS2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV2" t="e">
-        <v>#N/A</v>
+      <c r="AV2" t="s">
+        <v>236</v>
       </c>
       <c r="AW2">
         <v>4</v>
@@ -1534,13 +1537,13 @@
         <v>33.299999999999997</v>
       </c>
       <c r="AZ2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BB2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC2">
         <v>34.5</v>
@@ -1548,14 +1551,14 @@
       <c r="BD2">
         <v>10.59</v>
       </c>
-      <c r="BE2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG2" t="e">
-        <v>#N/A</v>
+      <c r="BE2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>236</v>
       </c>
       <c r="BH2">
         <v>38.4</v>
@@ -1563,26 +1566,26 @@
       <c r="BI2">
         <v>4.7366000000000001</v>
       </c>
-      <c r="BJ2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK2" t="e">
-        <v>#N/A</v>
+      <c r="BJ2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>236</v>
       </c>
       <c r="BL2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BN2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BO2">
         <v>12</v>
       </c>
-      <c r="BP2" t="e">
-        <v>#N/A</v>
+      <c r="BP2" t="s">
+        <v>236</v>
       </c>
       <c r="BQ2">
         <v>2000</v>
@@ -1591,31 +1594,31 @@
         <v>1000</v>
       </c>
       <c r="BS2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BT2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BW2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BX2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY2">
         <v>4</v>
       </c>
       <c r="BZ2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CA2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB2">
         <v>0.78</v>
@@ -1630,60 +1633,60 @@
         <v>7</v>
       </c>
       <c r="CF2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CJ2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK2" t="s">
         <v>132</v>
       </c>
-      <c r="CK2" t="s">
-        <v>133</v>
-      </c>
       <c r="CL2" t="s">
-        <v>139</v>
-      </c>
-      <c r="CM2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN2" t="e">
-        <v>#N/A</v>
+        <v>138</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>236</v>
       </c>
       <c r="CO2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CP2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CQ2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CR2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CT2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>3458</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>67</v>
@@ -1698,25 +1701,25 @@
         <v>24.489795999999998</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
         <v>44</v>
       </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O3">
         <v>29</v>
@@ -1731,10 +1734,10 @@
         <v>27</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U3">
         <v>3600</v>
@@ -1743,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y3" t="s">
         <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
       <c r="Z3">
         <v>120</v>
@@ -1760,35 +1763,35 @@
       <c r="AB3">
         <v>0.95</v>
       </c>
-      <c r="AC3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE3" t="e">
-        <v>#N/A</v>
+      <c r="AC3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>236</v>
       </c>
       <c r="AF3">
         <v>79.099999999999994</v>
       </c>
-      <c r="AG3" t="e">
-        <v>#N/A</v>
+      <c r="AG3" t="s">
+        <v>236</v>
       </c>
       <c r="AH3" t="s">
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" t="s">
         <v>73</v>
       </c>
-      <c r="AK3" t="s">
-        <v>74</v>
-      </c>
       <c r="AL3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM3">
         <v>3</v>
@@ -1797,7 +1800,7 @@
         <v>1.82</v>
       </c>
       <c r="AO3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP3">
         <v>41.8</v>
@@ -1806,19 +1809,19 @@
         <v>37.299999999999997</v>
       </c>
       <c r="AR3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV3" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>236</v>
       </c>
       <c r="AW3">
         <v>87</v>
@@ -1830,13 +1833,13 @@
         <v>47.8</v>
       </c>
       <c r="AZ3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BB3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC3">
         <v>37.799999999999997</v>
@@ -1844,14 +1847,14 @@
       <c r="BD3">
         <v>20.3</v>
       </c>
-      <c r="BE3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG3" t="e">
-        <v>#N/A</v>
+      <c r="BE3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>236</v>
       </c>
       <c r="BH3">
         <v>45.7</v>
@@ -1859,26 +1862,26 @@
       <c r="BI3">
         <v>27.641300000000001</v>
       </c>
-      <c r="BJ3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK3" t="e">
-        <v>#N/A</v>
+      <c r="BJ3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>236</v>
       </c>
       <c r="BL3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BM3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN3" t="s">
         <v>92</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>93</v>
       </c>
       <c r="BO3">
         <v>14</v>
       </c>
-      <c r="BP3" t="e">
-        <v>#N/A</v>
+      <c r="BP3" t="s">
+        <v>236</v>
       </c>
       <c r="BQ3">
         <v>2000</v>
@@ -1887,31 +1890,31 @@
         <v>500</v>
       </c>
       <c r="BS3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BT3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BW3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BX3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY3">
         <v>6</v>
       </c>
       <c r="BZ3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CA3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB3">
         <v>0.9</v>
@@ -1926,25 +1929,25 @@
         <v>5</v>
       </c>
       <c r="CF3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG3" t="s">
         <v>126</v>
       </c>
-      <c r="CG3" t="s">
-        <v>127</v>
-      </c>
       <c r="CH3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CJ3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CK3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CL3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CM3">
         <v>0.7407407407407407</v>
@@ -1953,33 +1956,33 @@
         <v>0.61904761904761907</v>
       </c>
       <c r="CO3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CP3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CQ3" t="s">
+        <v>144</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CS3" t="s">
         <v>145</v>
       </c>
-      <c r="CR3" t="s">
-        <v>144</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>146</v>
-      </c>
       <c r="CT3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>3455</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>42</v>
@@ -1994,25 +1997,25 @@
         <v>25.249338000000002</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O4">
         <v>17</v>
@@ -2027,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U4">
         <v>10800</v>
@@ -2039,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z4">
         <v>1000</v>
@@ -2056,35 +2059,35 @@
       <c r="AB4">
         <v>0.98</v>
       </c>
-      <c r="AC4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE4" t="e">
-        <v>#N/A</v>
+      <c r="AC4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>236</v>
       </c>
       <c r="AF4">
         <v>83.9</v>
       </c>
-      <c r="AG4" t="e">
-        <v>#N/A</v>
+      <c r="AG4" t="s">
+        <v>236</v>
       </c>
       <c r="AH4" t="s">
         <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM4">
         <v>2</v>
@@ -2093,7 +2096,7 @@
         <v>1.23</v>
       </c>
       <c r="AO4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP4">
         <v>88.5</v>
@@ -2102,19 +2105,19 @@
         <v>64.5</v>
       </c>
       <c r="AR4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV4" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>236</v>
       </c>
       <c r="AW4">
         <v>25</v>
@@ -2126,13 +2129,13 @@
         <v>20.3</v>
       </c>
       <c r="AZ4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC4">
         <v>36.1</v>
@@ -2140,14 +2143,14 @@
       <c r="BD4">
         <v>12.08</v>
       </c>
-      <c r="BE4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG4" t="e">
-        <v>#N/A</v>
+      <c r="BE4" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>236</v>
       </c>
       <c r="BH4">
         <v>34.799999999999997</v>
@@ -2155,26 +2158,26 @@
       <c r="BI4">
         <v>11.738200000000001</v>
       </c>
-      <c r="BJ4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK4" t="e">
-        <v>#N/A</v>
+      <c r="BJ4" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>236</v>
       </c>
       <c r="BL4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BN4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO4">
         <v>6</v>
       </c>
-      <c r="BP4" t="e">
-        <v>#N/A</v>
+      <c r="BP4" t="s">
+        <v>236</v>
       </c>
       <c r="BQ4">
         <v>2500</v>
@@ -2183,31 +2186,31 @@
         <v>1000</v>
       </c>
       <c r="BS4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BT4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BV4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BW4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BX4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY4">
         <v>0</v>
       </c>
       <c r="BZ4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CA4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB4">
         <v>0.9</v>
@@ -2222,60 +2225,60 @@
         <v>5</v>
       </c>
       <c r="CF4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CJ4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CK4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CL4" t="s">
-        <v>133</v>
-      </c>
-      <c r="CM4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN4" t="e">
-        <v>#N/A</v>
+        <v>132</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>236</v>
       </c>
       <c r="CO4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CP4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CQ4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CR4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CT4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>52570</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>70</v>
@@ -2290,25 +2293,25 @@
         <v>22.491350000000001</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O5">
         <v>53</v>
@@ -2323,10 +2326,10 @@
         <v>27</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U5">
         <v>15600</v>
@@ -2335,13 +2338,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z5">
         <v>1000</v>
@@ -2352,35 +2355,35 @@
       <c r="AB5">
         <v>0.8</v>
       </c>
-      <c r="AC5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE5" t="e">
-        <v>#N/A</v>
+      <c r="AC5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>236</v>
       </c>
       <c r="AF5">
         <v>95.6</v>
       </c>
-      <c r="AG5" t="e">
-        <v>#N/A</v>
+      <c r="AG5" t="s">
+        <v>236</v>
       </c>
       <c r="AH5" t="s">
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM5">
         <v>2</v>
@@ -2389,7 +2392,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AO5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP5">
         <v>57.4</v>
@@ -2398,19 +2401,19 @@
         <v>66.2</v>
       </c>
       <c r="AR5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV5" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>236</v>
       </c>
       <c r="AW5">
         <v>3</v>
@@ -2422,13 +2425,13 @@
         <v>27.3</v>
       </c>
       <c r="AZ5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC5">
         <v>37.6</v>
@@ -2436,14 +2439,14 @@
       <c r="BD5">
         <v>8.8699999999999992</v>
       </c>
-      <c r="BE5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG5" t="e">
-        <v>#N/A</v>
+      <c r="BE5" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>236</v>
       </c>
       <c r="BH5">
         <v>44.1</v>
@@ -2451,26 +2454,26 @@
       <c r="BI5">
         <v>22.8352</v>
       </c>
-      <c r="BJ5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK5" t="e">
-        <v>#N/A</v>
+      <c r="BJ5" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>236</v>
       </c>
       <c r="BL5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BN5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BO5">
         <v>10</v>
       </c>
-      <c r="BP5" t="e">
-        <v>#N/A</v>
+      <c r="BP5" t="s">
+        <v>236</v>
       </c>
       <c r="BQ5">
         <v>2500</v>
@@ -2479,31 +2482,31 @@
         <v>1000</v>
       </c>
       <c r="BS5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BT5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BW5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BX5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY5">
         <v>3</v>
       </c>
       <c r="BZ5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CA5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB5">
         <v>0.6</v>
@@ -2518,25 +2521,25 @@
         <v>8</v>
       </c>
       <c r="CF5" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG5" t="s">
         <v>126</v>
       </c>
-      <c r="CG5" t="s">
-        <v>127</v>
-      </c>
       <c r="CH5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CJ5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CK5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CL5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CM5">
         <v>0.88888888888888884</v>
@@ -2545,33 +2548,33 @@
         <v>0.30952380952380953</v>
       </c>
       <c r="CO5" t="s">
+        <v>140</v>
+      </c>
+      <c r="CP5" t="s">
         <v>141</v>
       </c>
-      <c r="CP5" t="s">
-        <v>142</v>
-      </c>
       <c r="CQ5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CR5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CT5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>53851</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>67</v>
@@ -2586,25 +2589,25 @@
         <v>29.296875</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
         <v>44</v>
       </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6">
         <v>21</v>
@@ -2619,10 +2622,10 @@
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U6">
         <v>18000</v>
@@ -2631,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z6">
         <v>2000</v>
@@ -2648,35 +2651,35 @@
       <c r="AB6">
         <v>0.54</v>
       </c>
-      <c r="AC6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE6" t="e">
-        <v>#N/A</v>
+      <c r="AC6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>236</v>
       </c>
       <c r="AF6">
         <v>112.6</v>
       </c>
-      <c r="AG6" t="e">
-        <v>#N/A</v>
+      <c r="AG6" t="s">
+        <v>236</v>
       </c>
       <c r="AH6" t="s">
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK6" t="s">
         <v>73</v>
       </c>
-      <c r="AK6" t="s">
-        <v>74</v>
-      </c>
       <c r="AL6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM6">
         <v>3</v>
@@ -2684,8 +2687,8 @@
       <c r="AN6">
         <v>1.5</v>
       </c>
-      <c r="AO6" t="e">
-        <v>#N/A</v>
+      <c r="AO6" t="s">
+        <v>236</v>
       </c>
       <c r="AP6">
         <v>43.1</v>
@@ -2694,19 +2697,19 @@
         <v>34.6</v>
       </c>
       <c r="AR6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU6" t="s">
         <v>79</v>
       </c>
-      <c r="AS6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV6" t="e">
-        <v>#N/A</v>
+      <c r="AV6" t="s">
+        <v>236</v>
       </c>
       <c r="AW6">
         <v>96</v>
@@ -2718,13 +2721,13 @@
         <v>64</v>
       </c>
       <c r="AZ6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BB6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC6">
         <v>43.3</v>
@@ -2732,14 +2735,14 @@
       <c r="BD6">
         <v>15</v>
       </c>
-      <c r="BE6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG6" t="e">
-        <v>#N/A</v>
+      <c r="BE6" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>236</v>
       </c>
       <c r="BH6">
         <v>49.1</v>
@@ -2747,26 +2750,26 @@
       <c r="BI6">
         <v>28.5031</v>
       </c>
-      <c r="BJ6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK6" t="e">
-        <v>#N/A</v>
+      <c r="BJ6" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>236</v>
       </c>
       <c r="BL6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BM6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN6" t="s">
         <v>92</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>93</v>
       </c>
       <c r="BO6">
         <v>11</v>
       </c>
-      <c r="BP6" t="e">
-        <v>#N/A</v>
+      <c r="BP6" t="s">
+        <v>236</v>
       </c>
       <c r="BQ6">
         <v>2000</v>
@@ -2775,31 +2778,31 @@
         <v>1000</v>
       </c>
       <c r="BS6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BT6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BW6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BX6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY6">
         <v>8</v>
       </c>
       <c r="BZ6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CA6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB6">
         <v>1.2</v>
@@ -2814,25 +2817,25 @@
         <v>10</v>
       </c>
       <c r="CF6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CG6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CH6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CI6" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ6" t="s">
         <v>130</v>
       </c>
-      <c r="CJ6" t="s">
-        <v>131</v>
-      </c>
       <c r="CK6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="CL6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CM6">
         <v>0</v>
@@ -2841,33 +2844,33 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="CO6" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>141</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>144</v>
+      </c>
+      <c r="CR6" t="s">
         <v>143</v>
       </c>
-      <c r="CP6" t="s">
-        <v>142</v>
-      </c>
-      <c r="CQ6" t="s">
+      <c r="CS6" t="s">
         <v>145</v>
       </c>
-      <c r="CR6" t="s">
-        <v>144</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>146</v>
-      </c>
       <c r="CT6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>7351</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>74</v>
@@ -2882,25 +2885,25 @@
         <v>25.81663</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O7">
         <v>35</v>
@@ -2915,10 +2918,10 @@
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U7">
         <v>19800</v>
@@ -2927,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z7">
         <v>2000</v>
@@ -2944,35 +2947,35 @@
       <c r="AB7">
         <v>1</v>
       </c>
-      <c r="AC7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE7" t="e">
-        <v>#N/A</v>
+      <c r="AC7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>236</v>
       </c>
       <c r="AF7">
         <v>73</v>
       </c>
-      <c r="AG7" t="e">
-        <v>#N/A</v>
+      <c r="AG7" t="s">
+        <v>236</v>
       </c>
       <c r="AH7" t="s">
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM7">
         <v>4</v>
@@ -2980,8 +2983,8 @@
       <c r="AN7">
         <v>2</v>
       </c>
-      <c r="AO7" t="e">
-        <v>#N/A</v>
+      <c r="AO7" t="s">
+        <v>236</v>
       </c>
       <c r="AP7">
         <v>33</v>
@@ -2990,19 +2993,19 @@
         <v>32.799999999999997</v>
       </c>
       <c r="AR7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV7" t="e">
-        <v>#N/A</v>
+        <v>79</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>236</v>
       </c>
       <c r="AW7">
         <v>1</v>
@@ -3014,13 +3017,13 @@
         <v>50</v>
       </c>
       <c r="AZ7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BB7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC7">
         <v>36.4</v>
@@ -3028,14 +3031,14 @@
       <c r="BD7">
         <v>16.440000000000001</v>
       </c>
-      <c r="BE7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG7" t="e">
-        <v>#N/A</v>
+      <c r="BE7" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>236</v>
       </c>
       <c r="BH7">
         <v>34.299999999999997</v>
@@ -3043,26 +3046,26 @@
       <c r="BI7">
         <v>12.2507</v>
       </c>
-      <c r="BJ7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK7" t="e">
-        <v>#N/A</v>
+      <c r="BJ7" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>236</v>
       </c>
       <c r="BL7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BM7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN7" t="s">
         <v>92</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>93</v>
       </c>
       <c r="BO7">
         <v>6</v>
       </c>
-      <c r="BP7" t="e">
-        <v>#N/A</v>
+      <c r="BP7" t="s">
+        <v>236</v>
       </c>
       <c r="BQ7">
         <v>1500</v>
@@ -3071,31 +3074,31 @@
         <v>1000</v>
       </c>
       <c r="BS7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BT7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BU7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BW7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BX7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY7">
         <v>5</v>
       </c>
       <c r="BZ7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CA7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CB7">
         <v>3.53</v>
@@ -3110,25 +3113,25 @@
         <v>3</v>
       </c>
       <c r="CF7" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG7" t="s">
         <v>126</v>
       </c>
-      <c r="CG7" t="s">
-        <v>127</v>
-      </c>
       <c r="CH7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CJ7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CK7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CL7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CM7">
         <v>0</v>
@@ -3137,33 +3140,33 @@
         <v>0</v>
       </c>
       <c r="CO7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CP7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CQ7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CR7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CS7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CT7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>23499</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>47</v>
@@ -3178,25 +3181,25 @@
         <v>26.840610000000002</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O8">
         <v>33</v>
@@ -3211,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U8">
         <v>7800</v>
@@ -3223,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z8">
         <v>600</v>
@@ -3240,35 +3243,35 @@
       <c r="AB8">
         <v>0.9</v>
       </c>
-      <c r="AC8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE8" t="e">
-        <v>#N/A</v>
+      <c r="AC8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>236</v>
       </c>
       <c r="AF8">
         <v>90.4</v>
       </c>
-      <c r="AG8" t="e">
-        <v>#N/A</v>
+      <c r="AG8" t="s">
+        <v>236</v>
       </c>
       <c r="AH8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -3276,8 +3279,8 @@
       <c r="AN8">
         <v>1.33</v>
       </c>
-      <c r="AO8" t="e">
-        <v>#N/A</v>
+      <c r="AO8" t="s">
+        <v>236</v>
       </c>
       <c r="AP8">
         <v>83.5</v>
@@ -3286,19 +3289,19 @@
         <v>57.6</v>
       </c>
       <c r="AR8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV8" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>236</v>
       </c>
       <c r="AW8">
         <v>43</v>
@@ -3310,13 +3313,13 @@
         <v>32.299999999999997</v>
       </c>
       <c r="AZ8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BB8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC8">
         <v>31.8</v>
@@ -3324,14 +3327,14 @@
       <c r="BD8">
         <v>15.71</v>
       </c>
-      <c r="BE8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG8" t="e">
-        <v>#N/A</v>
+      <c r="BE8" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>236</v>
       </c>
       <c r="BH8">
         <v>40.700000000000003</v>
@@ -3339,26 +3342,26 @@
       <c r="BI8">
         <v>25.879899999999999</v>
       </c>
-      <c r="BJ8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK8" t="e">
-        <v>#N/A</v>
+      <c r="BJ8" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>236</v>
       </c>
       <c r="BL8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM8" t="s">
         <v>90</v>
       </c>
-      <c r="BM8" t="s">
-        <v>91</v>
-      </c>
       <c r="BN8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BO8">
         <v>14</v>
       </c>
-      <c r="BP8" t="e">
-        <v>#N/A</v>
+      <c r="BP8" t="s">
+        <v>236</v>
       </c>
       <c r="BQ8">
         <v>2000</v>
@@ -3367,31 +3370,31 @@
         <v>100</v>
       </c>
       <c r="BS8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BT8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BW8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BX8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY8">
         <v>7</v>
       </c>
       <c r="BZ8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CA8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB8">
         <v>1</v>
@@ -3406,60 +3409,60 @@
         <v>6</v>
       </c>
       <c r="CF8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CH8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CI8" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ8" t="s">
         <v>130</v>
       </c>
-      <c r="CJ8" t="s">
-        <v>131</v>
-      </c>
       <c r="CK8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="CL8" t="s">
-        <v>140</v>
-      </c>
-      <c r="CM8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN8" t="e">
-        <v>#N/A</v>
+        <v>139</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>236</v>
       </c>
       <c r="CO8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CQ8" t="s">
         <v>143</v>
       </c>
-      <c r="CP8" t="s">
-        <v>142</v>
-      </c>
-      <c r="CQ8" t="s">
-        <v>144</v>
-      </c>
       <c r="CR8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="CT8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>28414</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>39</v>
@@ -3474,25 +3477,25 @@
         <v>35.444232999999997</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O9">
         <v>28</v>
@@ -3507,10 +3510,10 @@
         <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U9">
         <v>13199.999999999998</v>
@@ -3519,13 +3522,13 @@
         <v>93</v>
       </c>
       <c r="W9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z9">
         <v>500</v>
@@ -3536,35 +3539,35 @@
       <c r="AB9">
         <v>1.05</v>
       </c>
-      <c r="AC9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE9" t="e">
-        <v>#N/A</v>
+      <c r="AC9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>236</v>
       </c>
       <c r="AF9">
         <v>78.599999999999994</v>
       </c>
-      <c r="AG9" t="e">
-        <v>#N/A</v>
+      <c r="AG9" t="s">
+        <v>236</v>
       </c>
       <c r="AH9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM9">
         <v>3</v>
@@ -3572,8 +3575,8 @@
       <c r="AN9">
         <v>6.5</v>
       </c>
-      <c r="AO9" t="e">
-        <v>#N/A</v>
+      <c r="AO9" t="s">
+        <v>236</v>
       </c>
       <c r="AP9">
         <v>25.9</v>
@@ -3582,19 +3585,19 @@
         <v>9.6</v>
       </c>
       <c r="AR9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV9" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>236</v>
       </c>
       <c r="AW9">
         <v>54</v>
@@ -3606,13 +3609,13 @@
         <v>83.8</v>
       </c>
       <c r="AZ9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BA9" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB9" t="s">
         <v>87</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>88</v>
       </c>
       <c r="BC9">
         <v>30.7</v>
@@ -3620,14 +3623,14 @@
       <c r="BD9">
         <v>6.34</v>
       </c>
-      <c r="BE9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG9" t="e">
-        <v>#N/A</v>
+      <c r="BE9" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>236</v>
       </c>
       <c r="BH9">
         <v>36.9</v>
@@ -3635,26 +3638,26 @@
       <c r="BI9">
         <v>11.4047</v>
       </c>
-      <c r="BJ9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK9" t="e">
-        <v>#N/A</v>
+      <c r="BJ9" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>236</v>
       </c>
       <c r="BL9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BM9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN9" t="s">
         <v>92</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>93</v>
       </c>
       <c r="BO9">
         <v>8</v>
       </c>
-      <c r="BP9" t="e">
-        <v>#N/A</v>
+      <c r="BP9" t="s">
+        <v>236</v>
       </c>
       <c r="BQ9">
         <v>2000</v>
@@ -3663,31 +3666,31 @@
         <v>500</v>
       </c>
       <c r="BS9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BT9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BW9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BX9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY9">
         <v>10</v>
       </c>
       <c r="BZ9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CA9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB9">
         <v>1.1499999999999999</v>
@@ -3702,25 +3705,25 @@
         <v>6</v>
       </c>
       <c r="CF9" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG9" t="s">
         <v>126</v>
       </c>
-      <c r="CG9" t="s">
-        <v>127</v>
-      </c>
       <c r="CH9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI9" t="s">
+        <v>131</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL9" t="s">
         <v>132</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>130</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>135</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>133</v>
       </c>
       <c r="CM9">
         <v>0.7407407407407407</v>
@@ -3729,33 +3732,33 @@
         <v>0.77380952380952384</v>
       </c>
       <c r="CO9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CP9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CQ9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CR9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CT9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>23467</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -3770,25 +3773,25 @@
         <v>30.700406999999998</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
         <v>44</v>
       </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O10">
         <v>21</v>
@@ -3803,10 +3806,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U10">
         <v>7200</v>
@@ -3815,13 +3818,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z10">
         <v>700</v>
@@ -3832,35 +3835,35 @@
       <c r="AB10">
         <v>0.7</v>
       </c>
-      <c r="AC10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE10" t="e">
-        <v>#N/A</v>
+      <c r="AC10" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>236</v>
       </c>
       <c r="AF10">
         <v>92.7</v>
       </c>
-      <c r="AG10" t="e">
-        <v>#N/A</v>
+      <c r="AG10" t="s">
+        <v>236</v>
       </c>
       <c r="AH10" t="s">
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM10">
         <v>3</v>
@@ -3868,8 +3871,8 @@
       <c r="AN10">
         <v>1.7</v>
       </c>
-      <c r="AO10" t="e">
-        <v>#N/A</v>
+      <c r="AO10" t="s">
+        <v>236</v>
       </c>
       <c r="AP10">
         <v>48.6</v>
@@ -3878,19 +3881,19 @@
         <v>33.299999999999997</v>
       </c>
       <c r="AR10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU10" t="s">
         <v>79</v>
       </c>
-      <c r="AS10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV10" t="e">
-        <v>#N/A</v>
+      <c r="AV10" t="s">
+        <v>236</v>
       </c>
       <c r="AW10">
         <v>1</v>
@@ -3902,13 +3905,13 @@
         <v>58.8</v>
       </c>
       <c r="AZ10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BB10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC10">
         <v>39.700000000000003</v>
@@ -3916,14 +3919,14 @@
       <c r="BD10">
         <v>6.93</v>
       </c>
-      <c r="BE10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG10" t="e">
-        <v>#N/A</v>
+      <c r="BE10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>236</v>
       </c>
       <c r="BH10">
         <v>38.9</v>
@@ -3931,26 +3934,26 @@
       <c r="BI10">
         <v>22.955500000000001</v>
       </c>
-      <c r="BJ10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK10" t="e">
-        <v>#N/A</v>
+      <c r="BJ10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>236</v>
       </c>
       <c r="BL10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN10" t="s">
         <v>92</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>93</v>
       </c>
       <c r="BO10">
         <v>9</v>
       </c>
-      <c r="BP10" t="e">
-        <v>#N/A</v>
+      <c r="BP10" t="s">
+        <v>236</v>
       </c>
       <c r="BQ10">
         <v>1500</v>
@@ -3959,31 +3962,31 @@
         <v>500</v>
       </c>
       <c r="BS10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BT10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BU10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BW10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BX10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY10">
         <v>9</v>
       </c>
       <c r="BZ10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CA10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB10">
         <v>0.78</v>
@@ -3998,60 +4001,60 @@
         <v>4</v>
       </c>
       <c r="CF10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CJ10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CK10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CL10" t="s">
-        <v>134</v>
-      </c>
-      <c r="CM10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN10" t="e">
-        <v>#N/A</v>
+        <v>133</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>236</v>
       </c>
       <c r="CO10" t="s">
+        <v>140</v>
+      </c>
+      <c r="CP10" t="s">
         <v>141</v>
       </c>
-      <c r="CP10" t="s">
-        <v>142</v>
-      </c>
       <c r="CQ10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>143</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT10" t="s">
         <v>145</v>
-      </c>
-      <c r="CR10" t="s">
-        <v>144</v>
-      </c>
-      <c r="CS10" t="s">
-        <v>38</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>32455</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>62</v>
@@ -4066,25 +4069,25 @@
         <v>30.346074999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
         <v>44</v>
       </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O11">
         <v>27</v>
@@ -4099,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U11">
         <v>7200</v>
@@ -4111,13 +4114,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y11" t="s">
         <v>67</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>68</v>
       </c>
       <c r="Z11">
         <v>300</v>
@@ -4128,35 +4131,35 @@
       <c r="AB11">
         <v>0.78</v>
       </c>
-      <c r="AC11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE11" t="e">
-        <v>#N/A</v>
+      <c r="AC11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>236</v>
       </c>
       <c r="AF11">
         <v>100.9</v>
       </c>
-      <c r="AG11" t="e">
-        <v>#N/A</v>
+      <c r="AG11" t="s">
+        <v>236</v>
       </c>
       <c r="AH11" t="s">
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM11">
         <v>3</v>
@@ -4164,8 +4167,8 @@
       <c r="AN11">
         <v>1.2</v>
       </c>
-      <c r="AO11" t="e">
-        <v>#N/A</v>
+      <c r="AO11" t="s">
+        <v>236</v>
       </c>
       <c r="AP11">
         <v>84.9</v>
@@ -4174,19 +4177,19 @@
         <v>61.3</v>
       </c>
       <c r="AR11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV11" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>236</v>
       </c>
       <c r="AW11">
         <v>42</v>
@@ -4198,13 +4201,13 @@
         <v>35</v>
       </c>
       <c r="AZ11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BB11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC11">
         <v>28.1</v>
@@ -4212,14 +4215,14 @@
       <c r="BD11">
         <v>8.6300000000000008</v>
       </c>
-      <c r="BE11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG11" t="e">
-        <v>#N/A</v>
+      <c r="BE11" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>236</v>
       </c>
       <c r="BH11">
         <v>31.6</v>
@@ -4227,26 +4230,26 @@
       <c r="BI11">
         <v>17.8383</v>
       </c>
-      <c r="BJ11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK11" t="e">
-        <v>#N/A</v>
+      <c r="BJ11" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>236</v>
       </c>
       <c r="BL11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BN11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BO11">
         <v>12</v>
       </c>
-      <c r="BP11" t="e">
-        <v>#N/A</v>
+      <c r="BP11" t="s">
+        <v>236</v>
       </c>
       <c r="BQ11">
         <v>2250</v>
@@ -4255,31 +4258,31 @@
         <v>1000</v>
       </c>
       <c r="BS11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BT11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BW11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BX11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY11">
         <v>11</v>
       </c>
       <c r="BZ11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CA11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB11">
         <v>1.1599999999999999</v>
@@ -4294,60 +4297,60 @@
         <v>5</v>
       </c>
       <c r="CF11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CJ11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CK11" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL11" t="s">
         <v>135</v>
       </c>
-      <c r="CL11" t="s">
-        <v>136</v>
-      </c>
-      <c r="CM11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN11" t="e">
-        <v>#N/A</v>
+      <c r="CM11" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>236</v>
       </c>
       <c r="CO11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CP11" t="s">
+        <v>142</v>
+      </c>
+      <c r="CQ11" t="s">
         <v>143</v>
       </c>
-      <c r="CQ11" t="s">
-        <v>144</v>
-      </c>
       <c r="CR11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CT11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>33443</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>74</v>
@@ -4362,25 +4365,25 @@
         <v>26.989619999999999</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
         <v>44</v>
       </c>
-      <c r="L12" t="s">
-        <v>45</v>
-      </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O12">
         <v>27</v>
@@ -4395,10 +4398,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U12">
         <v>7200</v>
@@ -4407,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y12" t="s">
         <v>67</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>68</v>
       </c>
       <c r="Z12">
         <v>760</v>
@@ -4424,35 +4427,35 @@
       <c r="AB12">
         <v>0.9</v>
       </c>
-      <c r="AC12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE12" t="e">
-        <v>#N/A</v>
+      <c r="AC12" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>236</v>
       </c>
       <c r="AF12">
         <v>82.5</v>
       </c>
-      <c r="AG12" t="e">
-        <v>#N/A</v>
+      <c r="AG12" t="s">
+        <v>236</v>
       </c>
       <c r="AH12" t="s">
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM12">
         <v>3</v>
@@ -4460,8 +4463,8 @@
       <c r="AN12">
         <v>1.7</v>
       </c>
-      <c r="AO12" t="e">
-        <v>#N/A</v>
+      <c r="AO12" t="s">
+        <v>236</v>
       </c>
       <c r="AP12">
         <v>42.1</v>
@@ -4470,19 +4473,19 @@
         <v>39.6</v>
       </c>
       <c r="AR12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV12" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>236</v>
       </c>
       <c r="AW12">
         <v>8</v>
@@ -4494,13 +4497,13 @@
         <v>47.1</v>
       </c>
       <c r="AZ12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BB12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC12">
         <v>35.6</v>
@@ -4508,14 +4511,14 @@
       <c r="BD12">
         <v>5.95</v>
       </c>
-      <c r="BE12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG12" t="e">
-        <v>#N/A</v>
+      <c r="BE12" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>236</v>
       </c>
       <c r="BH12">
         <v>30.4</v>
@@ -4523,26 +4526,26 @@
       <c r="BI12">
         <v>13.6136</v>
       </c>
-      <c r="BJ12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK12" t="e">
-        <v>#N/A</v>
+      <c r="BJ12" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>236</v>
       </c>
       <c r="BL12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM12" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN12" t="s">
         <v>92</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>93</v>
       </c>
       <c r="BO12">
         <v>13</v>
       </c>
-      <c r="BP12" t="e">
-        <v>#N/A</v>
+      <c r="BP12" t="s">
+        <v>236</v>
       </c>
       <c r="BQ12">
         <v>2000</v>
@@ -4551,31 +4554,31 @@
         <v>500</v>
       </c>
       <c r="BS12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BT12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BW12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BX12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY12">
         <v>7</v>
       </c>
       <c r="BZ12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CA12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB12">
         <v>0.7</v>
@@ -4590,60 +4593,60 @@
         <v>4</v>
       </c>
       <c r="CF12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG12" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>76</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CJ12" t="s">
         <v>129</v>
       </c>
-      <c r="CH12" t="s">
-        <v>77</v>
-      </c>
-      <c r="CI12" t="s">
+      <c r="CK12" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL12" t="s">
         <v>132</v>
       </c>
-      <c r="CJ12" t="s">
-        <v>130</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>135</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>133</v>
-      </c>
-      <c r="CM12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN12" t="e">
-        <v>#N/A</v>
+      <c r="CM12" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>236</v>
       </c>
       <c r="CO12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CP12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CQ12" t="s">
+        <v>144</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>143</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT12" t="s">
         <v>145</v>
-      </c>
-      <c r="CR12" t="s">
-        <v>144</v>
-      </c>
-      <c r="CS12" t="s">
-        <v>38</v>
-      </c>
-      <c r="CT12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>65159</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>67</v>
@@ -4658,25 +4661,25 @@
         <v>18.365473000000001</v>
       </c>
       <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
         <v>36</v>
       </c>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
         <v>44</v>
       </c>
-      <c r="L13" t="s">
-        <v>45</v>
-      </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O13">
         <v>27</v>
@@ -4691,10 +4694,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U13">
         <v>7200</v>
@@ -4703,13 +4706,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z13">
         <v>200</v>
@@ -4720,35 +4723,35 @@
       <c r="AB13">
         <v>0.76</v>
       </c>
-      <c r="AC13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE13" t="e">
-        <v>#N/A</v>
+      <c r="AC13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>236</v>
       </c>
       <c r="AF13">
         <v>102.3</v>
       </c>
-      <c r="AG13" t="e">
-        <v>#N/A</v>
+      <c r="AG13" t="s">
+        <v>236</v>
       </c>
       <c r="AH13" t="s">
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM13">
         <v>3</v>
@@ -4756,8 +4759,8 @@
       <c r="AN13">
         <v>1.1599999999999999</v>
       </c>
-      <c r="AO13" t="e">
-        <v>#N/A</v>
+      <c r="AO13" t="s">
+        <v>236</v>
       </c>
       <c r="AP13">
         <v>43.7</v>
@@ -4766,19 +4769,19 @@
         <v>62.8</v>
       </c>
       <c r="AR13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV13" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>236</v>
       </c>
       <c r="AW13">
         <v>4</v>
@@ -4790,13 +4793,13 @@
         <v>34.5</v>
       </c>
       <c r="AZ13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BB13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC13">
         <v>31.5</v>
@@ -4804,14 +4807,14 @@
       <c r="BD13">
         <v>7.06</v>
       </c>
-      <c r="BE13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG13" t="e">
-        <v>#N/A</v>
+      <c r="BE13" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>236</v>
       </c>
       <c r="BH13">
         <v>30.6</v>
@@ -4819,26 +4822,26 @@
       <c r="BI13">
         <v>5.8018000000000001</v>
       </c>
-      <c r="BJ13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK13" t="e">
-        <v>#N/A</v>
+      <c r="BJ13" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>236</v>
       </c>
       <c r="BL13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BM13" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN13" t="s">
         <v>92</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>93</v>
       </c>
       <c r="BO13">
         <v>6</v>
       </c>
-      <c r="BP13" t="e">
-        <v>#N/A</v>
+      <c r="BP13" t="s">
+        <v>236</v>
       </c>
       <c r="BQ13">
         <v>1500</v>
@@ -4847,31 +4850,31 @@
         <v>500</v>
       </c>
       <c r="BS13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BU13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BV13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BW13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BX13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY13">
         <v>12</v>
       </c>
       <c r="BZ13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CA13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB13">
         <v>0.54</v>
@@ -4886,60 +4889,60 @@
         <v>7</v>
       </c>
       <c r="CF13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CJ13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CK13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CL13" t="s">
-        <v>135</v>
-      </c>
-      <c r="CM13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN13" t="e">
-        <v>#N/A</v>
+        <v>134</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>236</v>
       </c>
       <c r="CO13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CP13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CQ13" t="s">
+        <v>144</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>143</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT13" t="s">
         <v>145</v>
-      </c>
-      <c r="CR13" t="s">
-        <v>144</v>
-      </c>
-      <c r="CS13" t="s">
-        <v>38</v>
-      </c>
-      <c r="CT13" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>43786</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>61</v>
@@ -4954,25 +4957,25 @@
         <v>34.894398000000002</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
         <v>44</v>
       </c>
-      <c r="L14" t="s">
-        <v>45</v>
-      </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O14">
         <v>17</v>
@@ -4987,10 +4990,10 @@
         <v>1</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U14">
         <v>7200</v>
@@ -4999,13 +5002,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z14">
         <v>500</v>
@@ -5016,35 +5019,35 @@
       <c r="AB14">
         <v>1.06</v>
       </c>
-      <c r="AC14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE14" t="e">
-        <v>#N/A</v>
+      <c r="AC14" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>236</v>
       </c>
       <c r="AF14">
         <v>71</v>
       </c>
-      <c r="AG14" t="e">
-        <v>#N/A</v>
+      <c r="AG14" t="s">
+        <v>236</v>
       </c>
       <c r="AH14" t="s">
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK14" t="s">
         <v>73</v>
       </c>
-      <c r="AK14" t="s">
-        <v>74</v>
-      </c>
       <c r="AL14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM14">
         <v>3</v>
@@ -5052,8 +5055,8 @@
       <c r="AN14">
         <v>1.35</v>
       </c>
-      <c r="AO14" t="e">
-        <v>#N/A</v>
+      <c r="AO14" t="s">
+        <v>236</v>
       </c>
       <c r="AP14">
         <v>77.2</v>
@@ -5062,19 +5065,19 @@
         <v>53.7</v>
       </c>
       <c r="AR14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU14" t="s">
         <v>79</v>
       </c>
-      <c r="AS14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV14" t="e">
-        <v>#N/A</v>
+      <c r="AV14" t="s">
+        <v>236</v>
       </c>
       <c r="AW14">
         <v>29</v>
@@ -5086,13 +5089,13 @@
         <v>21.5</v>
       </c>
       <c r="AZ14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC14">
         <v>33.4</v>
@@ -5100,14 +5103,14 @@
       <c r="BD14">
         <v>18.27</v>
       </c>
-      <c r="BE14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG14" t="e">
-        <v>#N/A</v>
+      <c r="BE14" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>236</v>
       </c>
       <c r="BH14">
         <v>34.799999999999997</v>
@@ -5115,26 +5118,26 @@
       <c r="BI14">
         <v>21.772300000000001</v>
       </c>
-      <c r="BJ14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK14" t="e">
-        <v>#N/A</v>
+      <c r="BJ14" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>236</v>
       </c>
       <c r="BL14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BN14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BO14">
         <v>15</v>
       </c>
-      <c r="BP14" t="e">
-        <v>#N/A</v>
+      <c r="BP14" t="s">
+        <v>236</v>
       </c>
       <c r="BQ14">
         <v>2500</v>
@@ -5143,31 +5146,31 @@
         <v>1000</v>
       </c>
       <c r="BS14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BT14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BW14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BX14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY14">
         <v>10</v>
       </c>
       <c r="BZ14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CA14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB14">
         <v>1.18</v>
@@ -5182,60 +5185,60 @@
         <v>5</v>
       </c>
       <c r="CF14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI14" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ14" t="s">
         <v>130</v>
       </c>
-      <c r="CJ14" t="s">
-        <v>131</v>
-      </c>
       <c r="CK14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="CL14" t="s">
-        <v>134</v>
-      </c>
-      <c r="CM14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN14" t="e">
-        <v>#N/A</v>
+        <v>133</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>236</v>
       </c>
       <c r="CO14" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>141</v>
+      </c>
+      <c r="CQ14" t="s">
         <v>143</v>
       </c>
-      <c r="CP14" t="s">
-        <v>142</v>
-      </c>
-      <c r="CQ14" t="s">
-        <v>144</v>
-      </c>
       <c r="CR14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CT14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>43805</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>74</v>
@@ -5250,25 +5253,25 @@
         <v>25.711662</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
         <v>40</v>
       </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
       <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
         <v>44</v>
       </c>
-      <c r="L15" t="s">
-        <v>45</v>
-      </c>
       <c r="M15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O15">
         <v>20</v>
@@ -5283,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U15">
         <v>7200</v>
@@ -5295,13 +5298,13 @@
         <v>66</v>
       </c>
       <c r="W15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z15">
         <v>200</v>
@@ -5312,35 +5315,35 @@
       <c r="AB15">
         <v>0.76</v>
       </c>
-      <c r="AC15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE15" t="e">
-        <v>#N/A</v>
+      <c r="AC15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>236</v>
       </c>
       <c r="AF15">
         <v>74.400000000000006</v>
       </c>
-      <c r="AG15" t="e">
-        <v>#N/A</v>
+      <c r="AG15" t="s">
+        <v>236</v>
       </c>
       <c r="AH15" t="s">
         <v>0</v>
       </c>
       <c r="AI15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK15" t="s">
         <v>73</v>
       </c>
-      <c r="AK15" t="s">
-        <v>74</v>
-      </c>
       <c r="AL15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM15">
         <v>4</v>
@@ -5348,8 +5351,8 @@
       <c r="AN15">
         <v>1.38</v>
       </c>
-      <c r="AO15" t="e">
-        <v>#N/A</v>
+      <c r="AO15" t="s">
+        <v>236</v>
       </c>
       <c r="AP15">
         <v>39.5</v>
@@ -5358,19 +5361,19 @@
         <v>37.4</v>
       </c>
       <c r="AR15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV15" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>236</v>
       </c>
       <c r="AW15">
         <v>62</v>
@@ -5382,13 +5385,13 @@
         <v>44.9</v>
       </c>
       <c r="AZ15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BB15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC15">
         <v>41.6</v>
@@ -5396,14 +5399,14 @@
       <c r="BD15">
         <v>14.2</v>
       </c>
-      <c r="BE15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG15" t="e">
-        <v>#N/A</v>
+      <c r="BE15" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>236</v>
       </c>
       <c r="BH15">
         <v>32.700000000000003</v>
@@ -5411,26 +5414,26 @@
       <c r="BI15">
         <v>32.382399999999997</v>
       </c>
-      <c r="BJ15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK15" t="e">
-        <v>#N/A</v>
+      <c r="BJ15" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>236</v>
       </c>
       <c r="BL15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN15" t="s">
         <v>92</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>93</v>
       </c>
       <c r="BO15">
         <v>9</v>
       </c>
-      <c r="BP15" t="e">
-        <v>#N/A</v>
+      <c r="BP15" t="s">
+        <v>236</v>
       </c>
       <c r="BQ15">
         <v>1500</v>
@@ -5439,31 +5442,31 @@
         <v>500</v>
       </c>
       <c r="BS15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BT15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BW15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BX15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY15">
         <v>12</v>
       </c>
       <c r="BZ15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CA15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB15">
         <v>0.93</v>
@@ -5478,60 +5481,60 @@
         <v>9</v>
       </c>
       <c r="CF15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI15" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ15" t="s">
         <v>130</v>
       </c>
-      <c r="CJ15" t="s">
-        <v>131</v>
-      </c>
       <c r="CK15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CL15" t="s">
-        <v>138</v>
-      </c>
-      <c r="CM15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN15" t="e">
-        <v>#N/A</v>
+        <v>137</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>236</v>
       </c>
       <c r="CO15" t="s">
+        <v>140</v>
+      </c>
+      <c r="CP15" t="s">
         <v>141</v>
       </c>
-      <c r="CP15" t="s">
-        <v>142</v>
-      </c>
       <c r="CQ15" t="s">
+        <v>144</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>143</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT15" t="s">
         <v>145</v>
-      </c>
-      <c r="CR15" t="s">
-        <v>144</v>
-      </c>
-      <c r="CS15" t="s">
-        <v>38</v>
-      </c>
-      <c r="CT15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>10331</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>58</v>
@@ -5546,25 +5549,25 @@
         <v>28.037924</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
         <v>44</v>
       </c>
-      <c r="L16" t="s">
-        <v>45</v>
-      </c>
       <c r="M16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16">
         <v>14</v>
@@ -5579,10 +5582,10 @@
         <v>2</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U16">
         <v>3685219200</v>
@@ -5591,13 +5594,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z16">
         <v>760</v>
@@ -5608,35 +5611,35 @@
       <c r="AB16">
         <v>0.9</v>
       </c>
-      <c r="AC16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE16" t="e">
-        <v>#N/A</v>
+      <c r="AC16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>236</v>
       </c>
       <c r="AF16">
         <v>86.7</v>
       </c>
-      <c r="AG16" t="e">
-        <v>#N/A</v>
+      <c r="AG16" t="s">
+        <v>236</v>
       </c>
       <c r="AH16" t="s">
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM16">
         <v>3</v>
@@ -5644,8 +5647,8 @@
       <c r="AN16">
         <v>1.6</v>
       </c>
-      <c r="AO16" t="e">
-        <v>#N/A</v>
+      <c r="AO16" t="s">
+        <v>236</v>
       </c>
       <c r="AP16">
         <v>69</v>
@@ -5654,19 +5657,19 @@
         <v>44.6</v>
       </c>
       <c r="AR16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU16" t="s">
         <v>79</v>
       </c>
-      <c r="AS16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV16" t="e">
-        <v>#N/A</v>
+      <c r="AV16" t="s">
+        <v>236</v>
       </c>
       <c r="AW16">
         <v>7</v>
@@ -5678,13 +5681,13 @@
         <v>43.8</v>
       </c>
       <c r="AZ16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BB16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC16">
         <v>37.200000000000003</v>
@@ -5692,14 +5695,14 @@
       <c r="BD16">
         <v>8.43</v>
       </c>
-      <c r="BE16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG16" t="e">
-        <v>#N/A</v>
+      <c r="BE16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>236</v>
       </c>
       <c r="BH16">
         <v>33.5</v>
@@ -5707,26 +5710,26 @@
       <c r="BI16">
         <v>6.2488000000000001</v>
       </c>
-      <c r="BJ16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK16" t="e">
-        <v>#N/A</v>
+      <c r="BJ16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>236</v>
       </c>
       <c r="BL16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM16" t="s">
         <v>90</v>
       </c>
-      <c r="BM16" t="s">
-        <v>91</v>
-      </c>
       <c r="BN16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO16">
         <v>8</v>
       </c>
-      <c r="BP16" t="e">
-        <v>#N/A</v>
+      <c r="BP16" t="s">
+        <v>236</v>
       </c>
       <c r="BQ16">
         <v>2000</v>
@@ -5735,31 +5738,31 @@
         <v>1000</v>
       </c>
       <c r="BS16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BT16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU16" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV16" t="s">
         <v>104</v>
       </c>
-      <c r="BV16" t="s">
-        <v>105</v>
-      </c>
       <c r="BW16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BX16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY16">
         <v>9</v>
       </c>
       <c r="BZ16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CA16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB16">
         <v>1.18</v>
@@ -5774,60 +5777,60 @@
         <v>5</v>
       </c>
       <c r="CF16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CJ16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CK16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CL16" t="s">
-        <v>135</v>
-      </c>
-      <c r="CM16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN16" t="e">
-        <v>#N/A</v>
+        <v>134</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>236</v>
       </c>
       <c r="CO16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CP16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CQ16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CR16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CT16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>13509</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>66</v>
@@ -5842,25 +5845,25 @@
         <v>30.110279999999999</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" t="s">
         <v>44</v>
       </c>
-      <c r="L17" t="s">
-        <v>45</v>
-      </c>
       <c r="M17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="s">
         <v>48</v>
-      </c>
-      <c r="N17" t="s">
-        <v>49</v>
       </c>
       <c r="O17">
         <v>21</v>
@@ -5875,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U17">
         <v>7200</v>
@@ -5887,13 +5890,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y17" t="s">
         <v>67</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>68</v>
       </c>
       <c r="Z17">
         <v>500</v>
@@ -5904,35 +5907,35 @@
       <c r="AB17">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AC17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE17" t="e">
-        <v>#N/A</v>
+      <c r="AC17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>236</v>
       </c>
       <c r="AF17">
         <v>66.3</v>
       </c>
-      <c r="AG17" t="e">
-        <v>#N/A</v>
+      <c r="AG17" t="s">
+        <v>236</v>
       </c>
       <c r="AH17" t="s">
         <v>0</v>
       </c>
       <c r="AI17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>72</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>73</v>
-      </c>
       <c r="AK17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM17">
         <v>4</v>
@@ -5940,8 +5943,8 @@
       <c r="AN17">
         <v>1.83</v>
       </c>
-      <c r="AO17" t="e">
-        <v>#N/A</v>
+      <c r="AO17" t="s">
+        <v>236</v>
       </c>
       <c r="AP17">
         <v>44.9</v>
@@ -5950,19 +5953,19 @@
         <v>37.200000000000003</v>
       </c>
       <c r="AR17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU17" t="s">
         <v>79</v>
       </c>
-      <c r="AS17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV17" t="e">
-        <v>#N/A</v>
+      <c r="AV17" t="s">
+        <v>236</v>
       </c>
       <c r="AW17">
         <v>72</v>
@@ -5974,13 +5977,13 @@
         <v>39.299999999999997</v>
       </c>
       <c r="AZ17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BB17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC17">
         <v>30.9</v>
@@ -5988,14 +5991,14 @@
       <c r="BD17">
         <v>10.73</v>
       </c>
-      <c r="BE17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG17" t="e">
-        <v>#N/A</v>
+      <c r="BE17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>236</v>
       </c>
       <c r="BH17">
         <v>45.4</v>
@@ -6003,26 +6006,26 @@
       <c r="BI17">
         <v>30.181699999999999</v>
       </c>
-      <c r="BJ17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK17" t="e">
-        <v>#N/A</v>
+      <c r="BJ17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>236</v>
       </c>
       <c r="BL17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM17" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN17" t="s">
         <v>92</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>93</v>
       </c>
       <c r="BO17">
         <v>8</v>
       </c>
-      <c r="BP17" t="e">
-        <v>#N/A</v>
+      <c r="BP17" t="s">
+        <v>236</v>
       </c>
       <c r="BQ17">
         <v>2000</v>
@@ -6031,31 +6034,31 @@
         <v>500</v>
       </c>
       <c r="BS17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BT17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BW17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BX17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY17">
         <v>13</v>
       </c>
       <c r="BZ17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CA17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CB17">
         <v>5.2</v>
@@ -6070,60 +6073,60 @@
         <v>6</v>
       </c>
       <c r="CF17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI17" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ17" t="s">
         <v>130</v>
       </c>
-      <c r="CJ17" t="s">
-        <v>131</v>
-      </c>
       <c r="CK17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CL17" t="s">
-        <v>138</v>
-      </c>
-      <c r="CM17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN17" t="e">
-        <v>#N/A</v>
+        <v>137</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>236</v>
       </c>
       <c r="CO17" t="s">
+        <v>140</v>
+      </c>
+      <c r="CP17" t="s">
         <v>141</v>
       </c>
-      <c r="CP17" t="s">
-        <v>142</v>
-      </c>
       <c r="CQ17" t="s">
+        <v>144</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>144</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT17" t="s">
         <v>145</v>
-      </c>
-      <c r="CR17" t="s">
-        <v>145</v>
-      </c>
-      <c r="CS17" t="s">
-        <v>38</v>
-      </c>
-      <c r="CT17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>48273</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>31</v>
@@ -6138,25 +6141,25 @@
         <v>18.685122</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" t="s">
         <v>44</v>
       </c>
-      <c r="L18" t="s">
-        <v>45</v>
-      </c>
       <c r="M18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O18">
         <v>20</v>
@@ -6171,10 +6174,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U18">
         <v>17999.999999999971</v>
@@ -6183,13 +6186,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
+        <v>64</v>
+      </c>
+      <c r="X18" t="s">
         <v>65</v>
       </c>
-      <c r="X18" t="s">
-        <v>66</v>
-      </c>
       <c r="Y18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z18">
         <v>600</v>
@@ -6200,35 +6203,35 @@
       <c r="AB18">
         <v>0.8</v>
       </c>
-      <c r="AC18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE18" t="e">
-        <v>#N/A</v>
+      <c r="AC18" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>236</v>
       </c>
       <c r="AF18">
         <v>112.8</v>
       </c>
-      <c r="AG18" t="e">
-        <v>#N/A</v>
+      <c r="AG18" t="s">
+        <v>236</v>
       </c>
       <c r="AH18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM18">
         <v>2</v>
@@ -6236,8 +6239,8 @@
       <c r="AN18">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AO18" t="e">
-        <v>#N/A</v>
+      <c r="AO18" t="s">
+        <v>236</v>
       </c>
       <c r="AP18">
         <v>71.7</v>
@@ -6246,19 +6249,19 @@
         <v>74.900000000000006</v>
       </c>
       <c r="AR18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV18" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>236</v>
       </c>
       <c r="AW18">
         <v>34</v>
@@ -6270,13 +6273,13 @@
         <v>29.8</v>
       </c>
       <c r="AZ18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC18">
         <v>35.799999999999997</v>
@@ -6284,14 +6287,14 @@
       <c r="BD18">
         <v>14.93</v>
       </c>
-      <c r="BE18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG18" t="e">
-        <v>#N/A</v>
+      <c r="BE18" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>236</v>
       </c>
       <c r="BH18">
         <v>39.1</v>
@@ -6299,26 +6302,26 @@
       <c r="BI18">
         <v>12.598100000000001</v>
       </c>
-      <c r="BJ18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK18" t="e">
-        <v>#N/A</v>
+      <c r="BJ18" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>236</v>
       </c>
       <c r="BL18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BM18" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN18" t="s">
         <v>92</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>93</v>
       </c>
       <c r="BO18">
         <v>7</v>
       </c>
-      <c r="BP18" t="e">
-        <v>#N/A</v>
+      <c r="BP18" t="s">
+        <v>236</v>
       </c>
       <c r="BQ18">
         <v>1250</v>
@@ -6327,31 +6330,31 @@
         <v>500</v>
       </c>
       <c r="BS18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BT18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BU18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BV18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BW18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BX18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY18">
         <v>0</v>
       </c>
       <c r="BZ18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CA18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB18">
         <v>0.7</v>
@@ -6366,25 +6369,25 @@
         <v>11</v>
       </c>
       <c r="CF18" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG18" t="s">
         <v>126</v>
       </c>
-      <c r="CG18" t="s">
-        <v>127</v>
-      </c>
       <c r="CH18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CJ18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CK18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CL18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CM18">
         <v>0.88888888888888884</v>
@@ -6393,33 +6396,33 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="CO18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CP18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CQ18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CR18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CT18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>31355</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>56</v>
@@ -6434,25 +6437,25 @@
         <v>24.382715000000001</v>
       </c>
       <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
         <v>44</v>
       </c>
-      <c r="L19" t="s">
-        <v>45</v>
-      </c>
       <c r="M19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O19">
         <v>18</v>
@@ -6467,10 +6470,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" t="s">
         <v>57</v>
-      </c>
-      <c r="T19" t="s">
-        <v>58</v>
       </c>
       <c r="U19">
         <v>7200</v>
@@ -6479,13 +6482,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X19" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y19" t="s">
         <v>67</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>68</v>
       </c>
       <c r="Z19">
         <v>200</v>
@@ -6496,35 +6499,35 @@
       <c r="AB19">
         <v>0.9</v>
       </c>
-      <c r="AC19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE19" t="e">
-        <v>#N/A</v>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>236</v>
       </c>
       <c r="AF19">
         <v>87.3</v>
       </c>
-      <c r="AG19" t="e">
-        <v>#N/A</v>
+      <c r="AG19" t="s">
+        <v>236</v>
       </c>
       <c r="AH19" t="s">
         <v>0</v>
       </c>
       <c r="AI19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -6532,8 +6535,8 @@
       <c r="AN19">
         <v>1.2</v>
       </c>
-      <c r="AO19" t="e">
-        <v>#N/A</v>
+      <c r="AO19" t="s">
+        <v>236</v>
       </c>
       <c r="AP19">
         <v>76.8</v>
@@ -6542,19 +6545,19 @@
         <v>62.6</v>
       </c>
       <c r="AR19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV19" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>236</v>
       </c>
       <c r="AW19">
         <v>3</v>
@@ -6566,13 +6569,13 @@
         <v>25</v>
       </c>
       <c r="AZ19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC19">
         <v>31.9</v>
@@ -6580,14 +6583,14 @@
       <c r="BD19">
         <v>11.32</v>
       </c>
-      <c r="BE19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG19" t="e">
-        <v>#N/A</v>
+      <c r="BE19" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>236</v>
       </c>
       <c r="BH19">
         <v>30.1</v>
@@ -6595,26 +6598,26 @@
       <c r="BI19">
         <v>6.4051</v>
       </c>
-      <c r="BJ19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK19" t="e">
-        <v>#N/A</v>
+      <c r="BJ19" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>236</v>
       </c>
       <c r="BL19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BN19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BO19">
         <v>7</v>
       </c>
-      <c r="BP19" t="e">
-        <v>#N/A</v>
+      <c r="BP19" t="s">
+        <v>236</v>
       </c>
       <c r="BQ19">
         <v>2000</v>
@@ -6623,31 +6626,31 @@
         <v>1500</v>
       </c>
       <c r="BS19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BV19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BW19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BX19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY19">
         <v>8</v>
       </c>
       <c r="BZ19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CA19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB19">
         <v>0.6</v>
@@ -6662,60 +6665,60 @@
         <v>8</v>
       </c>
       <c r="CF19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG19" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>76</v>
+      </c>
+      <c r="CI19" t="s">
         <v>129</v>
       </c>
-      <c r="CH19" t="s">
-        <v>77</v>
-      </c>
-      <c r="CI19" t="s">
-        <v>130</v>
-      </c>
       <c r="CJ19" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK19" t="s">
         <v>132</v>
       </c>
-      <c r="CK19" t="s">
-        <v>133</v>
-      </c>
       <c r="CL19" t="s">
-        <v>135</v>
-      </c>
-      <c r="CM19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN19" t="e">
-        <v>#N/A</v>
+        <v>134</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>236</v>
       </c>
       <c r="CO19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CP19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CQ19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CR19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CT19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>41435</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>65</v>
@@ -6730,25 +6733,25 @@
         <v>33.02946</v>
       </c>
       <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
         <v>36</v>
       </c>
-      <c r="I20" t="s">
-        <v>37</v>
-      </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" t="s">
         <v>44</v>
       </c>
-      <c r="L20" t="s">
-        <v>45</v>
-      </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O20">
         <v>24</v>
@@ -6763,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U20">
         <v>7200</v>
@@ -6775,13 +6778,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z20">
         <v>350</v>
@@ -6792,35 +6795,35 @@
       <c r="AB20">
         <v>0.7</v>
       </c>
-      <c r="AC20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE20" t="e">
-        <v>#N/A</v>
+      <c r="AC20" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>236</v>
       </c>
       <c r="AF20">
         <v>113.2</v>
       </c>
-      <c r="AG20" t="e">
-        <v>#N/A</v>
+      <c r="AG20" t="s">
+        <v>236</v>
       </c>
       <c r="AH20" t="s">
         <v>0</v>
       </c>
       <c r="AI20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM20">
         <v>2</v>
@@ -6828,8 +6831,8 @@
       <c r="AN20">
         <v>1.3</v>
       </c>
-      <c r="AO20" t="e">
-        <v>#N/A</v>
+      <c r="AO20" t="s">
+        <v>236</v>
       </c>
       <c r="AP20">
         <v>80.099999999999994</v>
@@ -6838,19 +6841,19 @@
         <v>55.4</v>
       </c>
       <c r="AR20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU20" t="s">
         <v>79</v>
       </c>
-      <c r="AS20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV20" t="e">
-        <v>#N/A</v>
+      <c r="AV20" t="s">
+        <v>236</v>
       </c>
       <c r="AW20">
         <v>6</v>
@@ -6862,13 +6865,13 @@
         <v>46.2</v>
       </c>
       <c r="AZ20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BB20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC20">
         <v>28.6</v>
@@ -6876,14 +6879,14 @@
       <c r="BD20">
         <v>6.62</v>
       </c>
-      <c r="BE20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG20" t="e">
-        <v>#N/A</v>
+      <c r="BE20" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>236</v>
       </c>
       <c r="BH20">
         <v>31.9</v>
@@ -6891,26 +6894,26 @@
       <c r="BI20">
         <v>6.6853999999999996</v>
       </c>
-      <c r="BJ20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK20" t="e">
-        <v>#N/A</v>
+      <c r="BJ20" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>236</v>
       </c>
       <c r="BL20" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM20" t="s">
         <v>90</v>
       </c>
-      <c r="BM20" t="s">
-        <v>91</v>
-      </c>
       <c r="BN20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO20">
         <v>7</v>
       </c>
-      <c r="BP20" t="e">
-        <v>#N/A</v>
+      <c r="BP20" t="s">
+        <v>236</v>
       </c>
       <c r="BQ20">
         <v>2000</v>
@@ -6919,31 +6922,31 @@
         <v>1000</v>
       </c>
       <c r="BS20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BU20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BV20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BW20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BX20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY20">
         <v>10</v>
       </c>
       <c r="BZ20" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA20" t="s">
         <v>122</v>
-      </c>
-      <c r="CA20" t="s">
-        <v>123</v>
       </c>
       <c r="CB20">
         <v>0.87</v>
@@ -6958,60 +6961,60 @@
         <v>11</v>
       </c>
       <c r="CF20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CJ20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CK20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CL20" t="s">
-        <v>135</v>
-      </c>
-      <c r="CM20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN20" t="e">
-        <v>#N/A</v>
+        <v>134</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>236</v>
       </c>
       <c r="CO20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CP20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CQ20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CR20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CT20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>25791</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>57</v>
@@ -7026,25 +7029,25 @@
         <v>33.359755999999997</v>
       </c>
       <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
         <v>36</v>
       </c>
-      <c r="I21" t="s">
-        <v>37</v>
-      </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" t="s">
         <v>44</v>
       </c>
-      <c r="L21" t="s">
-        <v>45</v>
-      </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O21">
         <v>127</v>
@@ -7059,10 +7062,10 @@
         <v>3</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U21">
         <v>3600</v>
@@ -7071,13 +7074,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y21" t="s">
         <v>67</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>68</v>
       </c>
       <c r="Z21">
         <v>100</v>
@@ -7088,35 +7091,35 @@
       <c r="AB21">
         <v>0.95</v>
       </c>
-      <c r="AC21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE21" t="e">
-        <v>#N/A</v>
+      <c r="AC21" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>236</v>
       </c>
       <c r="AF21">
         <v>81.7</v>
       </c>
-      <c r="AG21" t="e">
-        <v>#N/A</v>
+      <c r="AG21" t="s">
+        <v>236</v>
       </c>
       <c r="AH21" t="s">
         <v>0</v>
       </c>
       <c r="AI21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM21">
         <v>2</v>
@@ -7125,7 +7128,7 @@
         <v>1.3</v>
       </c>
       <c r="AO21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP21">
         <v>89.6</v>
@@ -7134,19 +7137,19 @@
         <v>56.9</v>
       </c>
       <c r="AR21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU21" t="s">
         <v>79</v>
       </c>
-      <c r="AS21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV21" t="e">
-        <v>#N/A</v>
+      <c r="AV21" t="s">
+        <v>236</v>
       </c>
       <c r="AW21">
         <v>35</v>
@@ -7158,13 +7161,13 @@
         <v>26.9</v>
       </c>
       <c r="AZ21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC21">
         <v>44.6</v>
@@ -7172,14 +7175,14 @@
       <c r="BD21">
         <v>30.01</v>
       </c>
-      <c r="BE21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG21" t="e">
-        <v>#N/A</v>
+      <c r="BE21" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>236</v>
       </c>
       <c r="BH21">
         <v>43.1</v>
@@ -7187,26 +7190,26 @@
       <c r="BI21">
         <v>19.779499999999999</v>
       </c>
-      <c r="BJ21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK21" t="e">
-        <v>#N/A</v>
+      <c r="BJ21" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>236</v>
       </c>
       <c r="BL21" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM21" t="s">
         <v>90</v>
       </c>
-      <c r="BM21" t="s">
-        <v>91</v>
-      </c>
       <c r="BN21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO21">
         <v>6</v>
       </c>
-      <c r="BP21" t="e">
-        <v>#N/A</v>
+      <c r="BP21" t="s">
+        <v>236</v>
       </c>
       <c r="BQ21">
         <v>2000</v>
@@ -7215,31 +7218,31 @@
         <v>1000</v>
       </c>
       <c r="BS21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BT21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BW21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BX21" t="s">
         <v>113</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>114</v>
       </c>
       <c r="BY21">
         <v>9</v>
       </c>
       <c r="BZ21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CA21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CB21">
         <v>4</v>
@@ -7254,60 +7257,60 @@
         <v>7</v>
       </c>
       <c r="CF21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CG21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CH21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CI21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CJ21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CK21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CL21" t="s">
-        <v>136</v>
-      </c>
-      <c r="CM21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CN21" t="e">
-        <v>#N/A</v>
+        <v>135</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>236</v>
       </c>
       <c r="CO21" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP21" t="s">
         <v>142</v>
       </c>
-      <c r="CP21" t="s">
+      <c r="CQ21" t="s">
         <v>143</v>
       </c>
-      <c r="CQ21" t="s">
+      <c r="CR21" t="s">
         <v>144</v>
       </c>
-      <c r="CR21" t="s">
+      <c r="CS21" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT21" t="s">
         <v>145</v>
-      </c>
-      <c r="CS21" t="s">
-        <v>38</v>
-      </c>
-      <c r="CT21" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>52580</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>45</v>
@@ -7322,25 +7325,25 @@
         <v>26.892323000000001</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" t="s">
         <v>44</v>
       </c>
-      <c r="L22" t="s">
-        <v>45</v>
-      </c>
       <c r="M22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O22">
         <v>34</v>
@@ -7355,10 +7358,10 @@
         <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U22">
         <v>10800</v>
@@ -7367,13 +7370,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z22">
         <v>500</v>
@@ -7384,35 +7387,35 @@
       <c r="AB22">
         <v>1.03</v>
       </c>
-      <c r="AC22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE22" t="e">
-        <v>#N/A</v>
+      <c r="AC22" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>236</v>
       </c>
       <c r="AF22">
         <v>78.099999999999994</v>
       </c>
-      <c r="AG22" t="e">
-        <v>#N/A</v>
+      <c r="AG22" t="s">
+        <v>236</v>
       </c>
       <c r="AH22" t="s">
         <v>0</v>
       </c>
       <c r="AI22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK22" t="s">
         <v>73</v>
       </c>
-      <c r="AK22" t="s">
-        <v>74</v>
-      </c>
       <c r="AL22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM22">
         <v>2</v>
@@ -7421,7 +7424,7 @@
         <v>1.3</v>
       </c>
       <c r="AO22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP22">
         <v>76.099999999999994</v>
@@ -7430,19 +7433,19 @@
         <v>59.7</v>
       </c>
       <c r="AR22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV22" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>236</v>
       </c>
       <c r="AW22">
         <v>27</v>
@@ -7454,13 +7457,13 @@
         <v>20.8</v>
       </c>
       <c r="AZ22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC22">
         <v>30.1</v>
@@ -7468,14 +7471,14 @@
       <c r="BD22">
         <v>8.11</v>
       </c>
-      <c r="BE22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG22" t="e">
-        <v>#N/A</v>
+      <c r="BE22" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>236</v>
       </c>
       <c r="BH22">
         <v>28.7</v>
@@ -7483,26 +7486,26 @@
       <c r="BI22">
         <v>9.5970999999999993</v>
       </c>
-      <c r="BJ22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BK22" t="e">
-        <v>#N/A</v>
+      <c r="BJ22" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>236</v>
       </c>
       <c r="BL22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BN22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BO22">
         <v>11</v>
       </c>
-      <c r="BP22" t="e">
-        <v>#N/A</v>
+      <c r="BP22" t="s">
+        <v>236</v>
       </c>
       <c r="BQ22">
         <v>2000</v>
@@ -7511,31 +7514,31 @@
         <v>1000</v>
       </c>
       <c r="BS22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BT22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BU22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BW22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BX22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY22">
         <v>11</v>
       </c>
       <c r="BZ22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CA22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB22">
         <v>1.1000000000000001</v>
@@ -7550,25 +7553,25 @@
         <v>7</v>
       </c>
       <c r="CF22" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG22" t="s">
         <v>126</v>
       </c>
-      <c r="CG22" t="s">
-        <v>127</v>
-      </c>
       <c r="CH22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CI22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CJ22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CK22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CL22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CM22">
         <v>0.66666666666666663</v>
@@ -7577,22 +7580,22 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="CO22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CP22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CQ22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CR22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CS22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="CT22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
